--- a/src/test/resources/testdata/ExelenterEmployeesList.xlsx
+++ b/src/test/resources/testdata/ExelenterEmployeesList.xlsx
@@ -5,13 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t xml:space="preserve">Firstname</t>
   </si>
@@ -85,6 +83,18 @@
     <t xml:space="preserve">johnSmith_@2023!!!</t>
   </si>
   <si>
+    <t xml:space="preserve">Ahmat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahmat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahmrah123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AhmarRahmat_2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Negative Login Testing</t>
   </si>
   <si>
@@ -119,27 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve">Username cannot be empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errorMessage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invalidPass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admi123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exelent2022Sdet!</t>
   </si>
 </sst>
 </file>
@@ -149,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -196,21 +185,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -269,7 +243,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -311,14 +285,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,10 +366,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,6 +448,20 @@
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +497,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -527,7 +507,7 @@
     </row>
     <row r="2" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -537,13 +517,13 @@
     </row>
     <row r="3" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -552,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,13 +540,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,13 +554,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,13 +568,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,13 +582,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,13 +596,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,13 +610,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,13 +624,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -688,142 +668,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>